--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25961.66164021053</v>
+        <v>-28483.16623072895</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>53.70463160246771</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.05447077669613</v>
+        <v>261.4390387401335</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>261.1393615650098</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.7500985664003</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>51.90509872550019</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>327.4834092905804</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>37.31876817606116</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>212.9751395193208</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>29.76498982117685</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>242.6337954275716</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>129.4442665082501</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>28.32516504723813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.30974811734393</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>219.2450387532263</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.07916359105249</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>30.97191586387601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.3679902607849</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>52.54490042791004</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>224.7837165195595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15.76045942438941</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>70.8196413444507</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>154.0489950679129</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>112.0357928422981</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>10.74993283584276</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>108.0660982347008</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>1059.380574884244</v>
       </c>
       <c r="D2" t="n">
-        <v>555.9340887810113</v>
+        <v>701.1148762774933</v>
       </c>
       <c r="E2" t="n">
-        <v>555.9340887810113</v>
+        <v>315.3266236792491</v>
       </c>
       <c r="F2" t="n">
-        <v>144.9481839914037</v>
+        <v>315.3266236792491</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9481839914037</v>
+        <v>315.3266236792491</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1547555788524</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2298.562195506206</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>2043.877707300319</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387894</v>
+        <v>1754.460537263358</v>
       </c>
       <c r="X4" t="n">
-        <v>859.5709967387894</v>
+        <v>1526.470986365341</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.8032204090921</v>
+        <v>1305.678407221811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1841.137109080773</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="C5" t="n">
-        <v>1841.137109080773</v>
+        <v>1300.799627451883</v>
       </c>
       <c r="D5" t="n">
-        <v>1482.871410474022</v>
+        <v>1300.799627451883</v>
       </c>
       <c r="E5" t="n">
-        <v>1097.083157875778</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>686.0972530861707</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056585</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.137109080773</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4647,25 +4647,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>679.633399870996</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>510.6972169430891</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>510.6972169430891</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>362.784123360696</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386097</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1421.319716519628</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1166.635228313741</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>877.2180582767803</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X7" t="n">
-        <v>877.2180582767803</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>861.2818647012357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.00486941082</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.6952191369613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1706.712306494253</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1484.945691063779</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1195.842824189423</v>
       </c>
       <c r="V10" t="n">
-        <v>1417.894519215469</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W10" t="n">
-        <v>1128.477349178509</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X10" t="n">
-        <v>900.4877982804915</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.6952191369613</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128877</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841084</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998673</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.528408326419</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311999</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>632.755700703293</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>632.755700703293</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614396</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.6725264685197</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406128</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>388.619704128277</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783229</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987594</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876688</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5716,7 +5716,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487565</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510506</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510506</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304619</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267659</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2192.573257978144</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.498031322342</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2224.312334309519</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2004.71086933246</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471574</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>30.36925650589438</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>255.524048747157</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>311.5682601685398</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>143.1721208182243</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>64.12421452922524</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,16 +23701,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>32.89260457060175</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.5054897610423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>25.2166630913099</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922728</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.83034628221165</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9259388694776476</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>129.6605885985418</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>146.5858089828376</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>26.97729093373172</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>53.48834544997072</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>117.6435571543364</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26314,34 +26314,34 @@
         <v>298593.7657794697</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760022</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760024</v>
@@ -26350,7 +26350,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943731</v>
+        <v>94171.38997943737</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756655</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756595</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1003267.180215732</v>
+        <v>-1003453.573604271</v>
       </c>
       <c r="C6" t="n">
-        <v>98752.66181376624</v>
+        <v>98752.66181376639</v>
       </c>
       <c r="D6" t="n">
-        <v>-60668.60818412564</v>
+        <v>-60668.60818412571</v>
       </c>
       <c r="E6" t="n">
-        <v>-113013.5521120167</v>
+        <v>-113048.290037452</v>
       </c>
       <c r="F6" t="n">
-        <v>212398.9096953389</v>
+        <v>212364.171769903</v>
       </c>
       <c r="G6" t="n">
-        <v>212398.9096953385</v>
+        <v>212364.171769903</v>
       </c>
       <c r="H6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.1717699031</v>
       </c>
       <c r="I6" t="n">
-        <v>212398.9096953388</v>
+        <v>212364.171769903</v>
       </c>
       <c r="J6" t="n">
-        <v>44793.73188535617</v>
+        <v>44758.99395992048</v>
       </c>
       <c r="K6" t="n">
-        <v>212398.9096953388</v>
+        <v>212364.171769903</v>
       </c>
       <c r="L6" t="n">
-        <v>164104.9396871478</v>
+        <v>164070.2017617123</v>
       </c>
       <c r="M6" t="n">
-        <v>127343.8817598268</v>
+        <v>127309.1438343912</v>
       </c>
       <c r="N6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
       <c r="O6" t="n">
-        <v>212398.9096953386</v>
+        <v>212364.171769903</v>
       </c>
       <c r="P6" t="n">
-        <v>212398.9096953387</v>
+        <v>212364.171769903</v>
       </c>
     </row>
   </sheetData>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>130.7919609674849</v>
+        <v>39.57951382227191</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>25.08779255619078</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.83455478569445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>330.0252713467616</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>84.06429348237356</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>108.1022798468701</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>73.25201460187981</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>335.5079019498307</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>143.604143228482</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>60.32475882319176</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>223.8124782765899</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4971006716321</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,10 +32318,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33202,10 +33202,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,25 +34778,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>365.7939385020175</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -35015,7 +35015,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>590.9487307432801</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.65947400496543</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
